--- a/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well good afternoon, everyone. I want to welcome you all to the first hearing of the Subcommittee on Economic Opportunity for the 114th Congress. I have to tell you I am very honored to serve as chairman of this subcommittee and I look forward to working with Ranking Member Takano and other members to improve economic opportunities for our nation's veterans. Before we begin I will tell you that Mr. Coffman may join us and I ask unanimous consent that our colleague Mr. Coffman be allowed to join us at the dais and ask questions. Hearing no objection, so ordered.    We are here today to discuss implementation of the Transition Assistance Program, or TAP. TAP is a critically important step for today's servicemembers because if we can get TAP right for them at the onset of their transition from active duty I believe we can mitigate many other issues that have plagued and continue to plague previous generations of America's veterans.    The information on financial management, job search skills, and veteran benefits are light years away from what was being provided to servicemembers under previous versions of TAP, which was called by many death by PowerPoint. And while the structure of TAP has been greatly improved we can and should do more and I want to briefly make a few points.    It has been suggested by some that there is no need to continue to provide TAP in a classroom setting and that the online version is sufficient. While I agree that the online version can be helpful it was designed to only be a supplement to the classroom version and not to replace it. I understand that in a constrained fiscal environment the services have had the difficult task of implementing the VOW Act provision which made TAP mandatory. But I believe that focusing only on the online version would shortchange our servicemembers of critically important information.    I also want to echo the comments from the past two chairmen of this subcommittee by saying that I believe DoD is missing the mark by not making the education track mandatory for those servicemembers who are planning to use their G.I. Bill benefits upon transition. Under the right circumstances the Post 9/11 G.I. Bill can provide over $300,000 worth of benefits to a veteran and with thousands of schools and training programs clamoring for veteran students we must do everything we can to make sure our servicemembers are provided with all the information and tools they need to make an informed choice on the right school and how to use their educational benefits. Now from everything I have heard the education track does a great job in preparing servicemembers as they make this life changing choice and I believe it should be mandatory for servicemembers who are choosing to use their G.I. Bill benefits.    Another issue that I hope to hear more about today is how VA, DoD, and DoL are measuring and tracking performance and long term outcomes of TAP. Without measurable outcomes it is impossible to know for certain if this new curriculum is working. I know that hard statistics for a program like this can be difficult but I look forward to learning more about the steps the agencies have taken to track performance. Before I recognize the ranking member I do want to commend DoD, VA, and the Department of Labor for working together to transform TAP over the past two years. While many strides have been made a recent report from the VA's Office of Economic Opportunity highlighted a new challenge. The report stated that while unemployment rates for veterans continue to remain low, over half of the Post 9/11 veterans will face a period of unemployment upon transition. Helping facilitate a smooth transition so that veterans avoid this period of unemployment is our challenge and I look forward to exploring ways to address this challenge head on in today's hearing.    I now recognize Ranking Member Takano for his opening comments.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman, and welcome to the Subcommittee on Economic Opportunity, especially to our new members Ms. Radewagen and Ms. Rice. We welcome you. I know we will accomplish a lot under your stewardship, Mr. Chairman, of the committee during this session. Also thank you for your continued service to the United States Army and we are excited to have that level of experience and understanding that you bring from your experience in tackling the economic issues facing our veterans.    Transitioning from the military is a defining moment in all of our servicemembers' lives. Upon exiting the military at a minimum servicemembers should understand the resources available through their branch of service, the benefits awaiting them as veterans, and perhaps most importantly how to find a job. From a retiring commander to a one-term enlisted soldier leaving the military means different things to different individuals. There is no one answer as to how we can prepare these individuals for what comes next. Yet we have a responsibility to give them the best information available to help them focus on their next move as civilians. The Transition Assistance Program, or TAP, has gone through several iterations over the last several years and we expect it to continue to evolve as better practices are realized and implemented. The latest concept of TAP is Transition GPS, which is designed to deliver a wide array of information over a five-day period. One of the most important aspects of the program is a briefing on financial responsibility and access to financial counseling while still on active duty. Too many of our younger servicemembers are leaving the military without thinking about their financial futures and having access to a trained professional who can help guide them toward financial responsibility is extremely important. I look forward to hearing Dr. Kelly speak to the financial responsibility briefing and other aspects of the DoD portion of this training.    I am also looking forward to hearing from Mr. Coy about the VA portion of the training and how veterans are learning about how to access their veterans benefits. The Post 9/11 G.I. Bill is an incredible education benefit and I am very interested in hearing more about how servicemembers are learning about the optional education track briefing. Last Congress I was an original cosponsor to the legislation introduced by Congressman Flores that would have made the education track mandatory. In many instances student veterans are unaware of the differences between education institutions, the quality of education at those institutions, and the likelihood of finding a job upon graduation. The education track remains optional for the time being and I hope to hear from our agency witnesses that servicemembers are being encouraged to take this optional course if they are planning to use their education benefits.    Finally some portions of the Transition GPS training are now interactive and online. I am very interested in learning more about how servicemembers are utilizing these resources. I would also like to welcome our guests from the Veterans of Foreign Wars, the American Legion, Student Veterans of America, and Easter Seals Dixon Center. I look forward to hearing what some of the veterans you speak with are saying about TAP and any recommendations you may have.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Leghorn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Leghorn. Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee, on behalf of National Commander Michael Helm and the 2.4 million members of the American Legion, we thank you for this opportunity to testify at this hearing on improving the Transition Assistance Program and veterans' transition in general.    Over the past two years the American Legion has intensely scrutinized the new TAP, observing it in operation across the country. The testimony we present today reflects this scrutiny and provides observations as well as recommendations for improvement. In general we were highly impressed both by the amount and the quality of information that was conveyed, particularly in such a relatively short period of time.    The American Legion has long advocated for the inclusion of VSOs in TAP. VSOs provide important services to transitioning servicemembers and we are pleased to note that during the TAP sessions we observed the attendees were referred to VSOs for claim services by the TAP instructors. We would, however, like to offer some recommendations. The first regards a need to increase emphasis on soft skills, that is behaviors and etiquette that makes an individual employable. The vast majority of personnel leaving the armed services have not had significant experience working in a civilian work setting. We believe that insufficient emphasis is placed on these soft skills during TAP. Further, a five-day course cannot hope to teach behaviors obtained by spending a substantial part of one's adult life in a civilian work place. However, we believe that transitioning servicemembers would benefit if there were more discussions of workplace culture.    The second regards an improvement to the information on education that is provided in TAP. With the Post 9/11 G.I. Bill every transitioning servicemember has access to the opportunity to attend a higher education program, or in some instances transfer the benefit to their dependents. As such we recommend that the educational track incorporate more input from the Department of Education and that the education track of Transition GPS be made mandatory for all transitioning servicemembers.    We believe that part of the solution to veterans unemployment lies in a collaboration between government entities and the private sector. As such the American Legion as responded by bringing Employment Workshops and hiring events to transitioning servicemembers. Our Employment and Empowerment Summit is a two-day event that ends with a job fair. We host this summit in various cities and provide transportation and lodging to servicemembers going through TAP. Servicemembers attending our events have had the chance to learn about various opportunities in fields ranging from the banking industry to the trades and are able to receive some preliminary instruction on the aforementioned soft skills needed to gain and maintain employment. Unfortunately at some locations we are met with resistance from contracted TAP facilitators. Contractually TAP facilitators are evaluated based on a limited scope of performance measures, thus there is a lack of incentive for them to work outside the confines of their own programs. Amending DoD contracts for TAP facilitators to include a section regarding required collaboration with trusted private sector actors would solve this problem fairly easily.    We recognize that one of TAP's main roles is to introduce the employment services available to veterans and to provide a warm handoff to the agencies that administer those programs. However, we have become aware of an issue affecting veterans employment services that are funded by the JVSG and administered through DoL VETS. Last spring DoL issued a directive creating a hard distinction between disabled veteran outreach program representatives and the local veterans employment representatives which are funded by the JVSG grants and are located at DoL job centers across the country. Essentially this disallows DVOPs from seeing non-service disabled veterans even if they have time. DoL's self-imposed restrictions undermine the flexibility required to best serve veterans who are in need of employment services. These restrictions are contrary to the federal statute and have generated negative feedback from the field. The American Legion is adamant that a regulatory or legislative change reinstituting the roles of DVOP and LVERs by DoL would provide a significant improvement to the JVSG program. The American Legion is working with the office of Senator Pat Toomey of Pennsylvania to introduce a bill that would make this change explicit in the statute should DoL fail to make the regulatory change.    Overall the American Legion believes that the new TAP program represents an important step towards providing transitioning servicemembers with the information that they need to become successful. While there exists some shortcomings that require attention the program overall appears to be successful and implementation has been commendable. The American Legion looks forward to continuing our work with the agencies and with Congress to continue to improve this valuable resource for our transitioning servicemembers.    [The prepared statement of Davy Leghorn appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you very much. Thank you, Mr. Leghorn. Mr. Gallucci, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Gallucci</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallucci. Thank you, Mr. Chairman. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for the opportunity to present the VFW's thoughts on the Military Transition Assistance Program, or TAP.    The VFW has long recognized the need to provide transitioning servicemembers with a quality baseline of information with which to make informed decisions about their post-military lives. Over the past few years this subcommittee has driven significant change in TAP. The agencies responsible have rebuilt the program from the ground up and worked to foster consistency by introducing contract facilitators, individual curriculum tracks, and access to post-service TAP. My remarks will focus on these three areas.    First, the VFW generally agrees with the shift to contract facilitators, freeing up local resources to serve veterans. However, the shift has had some unintended consequences and the VFW encourages striking a proper balance on contract facilitation and local need. The VFW also recognizes that the military has made a significant investment in TAP in anticipation of the current military draw down. More transitioning servicemembers require more staff and more classroom space. As DoD seeks to meet this demand we must not forget that VSOs still play a critical role in transition. To assist in the process the VFW has professional staff on more than a dozen military installations with plans to expand.    Our staff provides free assistance to servicemembers seeking to file for VA disability benefits prior to separation. To do so we rely on our military hosts and TAP for access and support. Outgoing Secretary of Defense Chuck Hagel recognized this in his recent memo to installation commanders, which outlines how they should provide for VSOs that deliver VA accredited, face-to-face services to transitioning servicemembers. Adherence to this memo is critical to the VFW as we see a correlation between exposure and access and the number of servicemembers seeking representation. We see fewer claims on installations where our access is limited, despite the increase in those leaving the military.    Next, the VFW applauds the hard work of the contract VA briefing facilitators, many of whom are recently transitioned veterans. However, we question why the contract leaves such little flexibility to adapt to local needs. We encourage VA and the subcommittee to review the contract and offer flexibility to reintegrate local resources like VSOs and reasonably adapt the curriculum to suit the audience.    Next, we must ensure consistent access to the new TAP tracks, as well as consistent delivery of timely and relevant training. During VFW's recent visits to our staff on military bases we spoke with those responsible for implementing TAP. They acknowledge that the training is a marked improvement and were grateful for the significant recent investment in the program, however they worried that unit commanders still struggle to see the value in allowing their personnel to participate. Sadly, this was not an isolated issue. Though TAP is now a commander's program the VFW worries that DoD lacks mechanisms to hold commanders accountable. This requires a significant cultural shift, one that is unlikely to happen during the current draw down. So in an effort to mitigate this concern the VFW encouraged DoD to make the curriculum accessible online. DoD complied, allowing servicemembers to complete the training through their secure JKO accounts. However, transitioning servicemembers still have no reasonable way to anticipate the specific challenges they will face after leaving the military. The simplest solution would be for DoD to finalize its information sharing agreement with the Department of Labor, offering workforce agencies access to the names of veterans returning to their communities. But the agreement is once again delayed. This is unacceptable and we encourage Congress to act on it.    Finally, we must continue to invest in the post-service availability of TAP. Over the past two years DoL worked with its contractors in West Virginia, Georgia, and Washington to facilitate 23 workshops as part of the Off Base Transition Training, or OBTT pilot program. Some workshops were more successful than others, with West Virginia experiencing the most success thanks to support from the National Guard. OBTT was very cost effective, costing only $52,000 for the entire pilot. Through large scale community based TAP classes, OBTT serves veterans who otherwise would not have had access to the material or who could only rely on the, or could only receive the information by meeting one on one with an employment counselor. The VFW believes it is more cost effective to leverage the current TAP contract to facilitate large training sessions like OBTT before veterans meet one on one with counselors at American job centers. This way when veterans seek out services they are prepared to have a constructive meeting to find a job. OBTT expired this month and DoL will not have information on outcomes for another year. As we wait for final data on OBTT the VFW believes that Congress should at least extend the pilot, offering cost effective services to more veterans who need it.    Veterans can also access all the new TAP modules via a public facing website offered in joint venture by DoD and Department of Labor. The VFW believes this is a game changer for veterans. However, to improve the site the VFW recommends allowing veterans to navigate directly to modules they need and offering links to the participant guides. DoL should also track traffic to the site to identify trends and shortcomings in the Transition Assistance Program. These minor improvements would allow veterans to use the public facing site as an easy reference guide.    TAP is undergoing an amazing revolution and the VFW thanks everyone involved for their continued hard work on this project. However, we know that there are places that we can improve. With the current military draw down it is critical to ensure the future success of our war fighters and we look forward to working with this subcommittee on ways to make sure that we succeed in that mission. Chairman Wenstrup, Ranking Member Takano, and members of the committee, this concludes my testimony. I am happy to answer any questions you may have.    [The prepared statement of Ryan Gallucci appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Gallucci. Ms. Dunmyer, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Dunmyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dunmyer. Thank you, Chairman. Chairman Wenstrup, Ranking Member Takano, and other distinguished members of the subcommittee, thank you for calling this hearing and for continuing to monitor efforts to successfully transition our returning veterans out of the military and into civilian life. My name is Valrica Dunmyer and I am the Chief of Staff and Chief Financial Officer at Student Veterans of America. I am also here as a veteran with 26 years of Army service. We are honored that you have invited us to be a part of this session today.    On behalf of SVA and its more than 400,000 student veterans within a network of more than 1,200 chapter affiliates I am pleased to submit our testimony on the review of a Transition Assistance Program. SVA advocates for the rights of veterans in higher education, rooted in the belief that investing in America's veterans today is a smart investment for the country tomorrow. SVA's top priorities include improving access to higher education and scaling effective services that empower student veterans to graduate on time with little to no student debt and successfully transition into civilian life.    Mr. Chairman, as a beneficiary of the current program I know that improvements have been made. Nevertheless, transitional challenges still exist as evidenced through the continuing struggle of our veterans, and more specifically our student veterans. One of the main challenges is knowing whether the TAP GPS program is truly working on the front end to produce the desired outcome on the back end. As of December 2, 2013 only 72 percent of TAP locations included the higher education track offered by the DoD. Now this may seem like a high number to you and something to be proud of. But consider for a moment, if you are that vet that's in the 28 percent group, and your release date is quickly approaching, imagine that that is you and you are thinking about getting out and you want to pursue a degree. You have not been provided any of the information and you have no idea where to start. For those veterans the system is still not working.    Our Million Records Project represents the most comprehensive examination of student veterans' post-secondary academic success that has ever been done in decades. The Million Records Project showed that more than a million veterans have used educational benefits from 2002 to 2010. Additional data indicates that there will be over five million veterans by 2020. These facts, coupled with ongoing budgetary constraints, prove that we can no longer hope that our brick and mortar delivery of information is sufficient. We must be innovative in our approach to information delivery while still ensuring the quality of information provided to our veterans. Most veterans frown on the current delivery method, describing the TAP program as death by Power Point due to the lengthy and enormous amount of information delivered. While the basic information such as months of Post 9/11 G.I. Bill eligibility should continue to be included, we must ensure that our entire instructional program is informed through research, best practices, and feedback.    As servicemembers contemplate pursuing a degree following the military the utilization of VSOs and VSAs can be looked upon as being a force multiplier, providing the necessary link between departure from the military and the veteran's introduction into civilian life. Veterans service organizations like SVA have a proven track record of success, to both its members, both today and its alumni, and it should have a seat at the table in further discussions. Through research, connection with our local SVA chapters, and advocacy, we know that the better informed and prepared student veterans are the greater the contributions and return on the investment for our nation. By integrating SVA and other VSOs into the assessing higher education track, we can ensure the same level of success for all vets transitioning into higher education.    We thank the chairman, ranking member, and the subcommittee members for your time, attention, and devotion to veterans and higher learning. We look forward to continuing to work with this subcommittee, the House Committee on Veterans' Affairs, and the Congress to ensure the success of all generations of veterans. Thank you.    [The prepared statement of Valrica Marshall Dunmyer appears in the Appendix]</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t xml:space="preserve">    Mr. Leghorn. We talked to the Department of Labor about this in the past. And I believe we were told that they had a, a while back they had a direct calling campaign where they were reaching, actually reaching out to the people that have gone through TAP. And they captured their information and they were following up with them afterwards. So I do not know if that is still happening, but the American Legion was in support of that program.</t>
   </si>
   <si>
-    <t>Gallagher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallagher. Thank you for the chairman, thank you for the question, Mr. Chairman. A couple of items on this. Now first, DoD is conducting exit surveys for participants in the Transition Assistance Program. Overall the feedback has been generally positive from what the VFW has seen. Now to do our own due diligence we also had a survey of recently transitioned servicemembers asking for their feedback on the Transition Assistance Program. A little bit of what we found from our respondents is that 65 percent reported that overall they were very satisfied with the level of training that they received. Only five percent reported that they were dissatisfied. Although the response, the sampling was very small, we hit major installations like, major combat installations like Fort Campbell, Fort Bragg, Hood, Camp Pendleton, and so on.    Now as far as the Department of Labor briefing, 72 percent found it very useful, 26 somewhat useful. And 68 percent reported very likely to use the resources after they separated. Now the problem with this is that it does not capture what happens in the out years. This is what we were talking about in our testimony about the DoD, the importance of the Department of Defense and Department of Labor information sharing agreement. Department of Labor does want to track veterans once they separate from the military and what their employment interactions are like but they do not have consistent access to the information from when servicemembers leave the military and become veterans.    Also with the Off Base Transition Training Program, I think that is why we think this is an important investment. OBTT has the potential to reach veteran who never had an opportunity to go through TAP, which is the majority of the veteran population. I know when I left the military it still was not mandatory. The mandate is only hitting people who are going through it now. And also, that is not necessarily even the right time to ask those questions because you do not know the challenges you will face until after you leave.    There are some issues with the current population survey and how the Bureau of Labor Statistics identifies veterans within the workforce. There are some tweaks we could make there to make it more beneficial. But there, we have a long way to go before properly evaluating the effectiveness of TAP and the long term employment of veterans.</t>
   </si>
   <si>
@@ -151,12 +133,6 @@
     <t xml:space="preserve">    Dr. Wenstrup. I now recognize the remaining members in order of arrival, alternating sides. First is Ms. Radewagen.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman, ranking member, and members of the subcommittee, talofa. My home district of American Samoa is an isolated group of islands about five and a half hours by plane south of Hawaii. It's the only U.S. soil that's south of the equator. And for a small group of islands we have a tremendous number of our sons and daughters serving and that have served in the armed forces. In fact, ten percent of our entire population is made up of military veterans. I want to make sure we cover as much as possible for our veterans. Too often in the past, not just in this committee but throughout the House, legislation has passed Congress that has forgotten American Samoa and the territories and I am pleased to see that in this bill our veterans are eligible for this assistance just as those in the States are.    I have a question for Mr. Gallucci. I appreciate your suggestion in your written testimony that you believe a disabled veterans outreach program and the local veterans employment representatives should be more involved in TAP. Short of repealing the law mandating that contractors teach TAP, how would you envision DVOPs and LVERs being more involved?</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. And I want to thank each of you for your testimony. I believe I can generalize that each of you has said that TAP is an improvement but that TAP itself can be improved. And I think that it is refreshing for all of us to hear that TAP is an improvement.    My question is directly oriented to Colonel Sutherland, although I invite anyone else to offer their comments. Colonel, I am just going to read a couple pieces of your testimony and then ask a question to provide the context. This is you speaking. I have found what typically separates a transition success story from a transition story of struggle and crisis lies in how a community welcomes, connects with, and responds to servicemembers leaving the military. We do not need more organizations but rather we need to harness existing community based programs and get organizations from across society to be inclusive of those touched by military service, to use our leadership locally to bring these organizations together to achieve collective impact. On page four you note, more needs to be done to localize the TAP training for transitioning servicemembers. And then to page seven you state that, you speak about the warm hand off between TAP and community as being lacking and there needs to be a more effective way of connecting the separating servicemember to the community he or she is planning to either prior to or during their transition. The DoD, for example, is not designed to provide these follow along community supports but some type of hand off within the community to the state director of veterans services, American Job Center staff, or local veterans service organization could help promote smoother transitions.    The question is, and it need not necessarily be an economic development agency although being a county commissioner, I mean, I am aware that every region has an economic development agency that handles workforce development programs. My question is because it is necessarily something very local, and because each community is a little bit different, do you envision sort of a unified delivery model for dealing with that warm hand off and for dealing with that ongoing issue of reintegration? Or is it something that really falls outside of government and is much more to use the term community based? I am curious if you could reflect on that a little bit further. Because I find it very interesting. And it really hits to the nexus of what the focus is, which is how do you transform TAP into its next iteration?    Colonel Sutherland. It does, and I understand exactly the challenge. The institutions need to err on the side of the veterans as opposed to err on the side of the institution, and to do that we have to understand if you have met a servicemember you have met a servicemember. If you have met a veteran, you have met a veteran. And if you are going to a community, you are going to a community. Each community has different resources, different capacity. And then what we have seen though in those communities, those local communities, is organizations that have stood up over the past several years because of this desire to want to connect and enable this generation of veterans.    We have seen whole of society approaches take place, whether it is in Wilkes-Barre or whether it is in Cincinnati or Boise, Idaho with the Wyakin Warrior Program. But what we have seen is that as the veterans transition, a more personalized approach to connect them to what are their desires as opposed to what do we think they should do. And what we have seen is over the past year some great advancement as far as apprenticeships and internships through Skills Bridge, with DoD working with the VA, as well as with teamster organizations. Trade and local organizations are phenomenal at not only recognizing the skill sets of the veterans but then tying them to what do the veterans want to do? What does the servicemember want to do? And now with the opportunities with the changes in DoD regulations that took place last January, or instructions that have taken place last January, we are now doing internships on installations. We just kicked off in Fort Sill with the teamsters doing truck driver training with a large group that want to drive trucks, commercial rigs. And so understanding that it is a whole of society approach but tailoring it after the institutionalized training that they go through in the TAP program as they get closer.    Because honestly when you are at 180 days out, I am thinking 180, 179, 178, I am counting down. As you get closer to the end and having a follow up, a care coordination effort, but connecting them to some sort of network in their local community. And that is what the state directors of veterans services have been talking about as well. Because we have been leaving them out of the conversations in some cases. Including them and then understanding that another part of this is building public awareness. The American people know what we are. They may not know us. They know we served in Iraq and Afghanistan, they know we served on a ship or an aircraft, we need to bring it down to a personal level once we connect with them in the local community. And that is why that network is so, so important. And having, harnessing community based programs. That is how J.P. Morgan has hired over 100,000, UBS has hired several thousand veterans. And through the work of local organizations coming together, what we have seen in Cincinnati that has reduced the unemployment. It is the public and private partnership that really takes place after that institutional training. Does that answer your question, sir?</t>
   </si>
   <si>
@@ -199,9 +172,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. First I would like to say to Mr. Leghorn, I appreciated your observation and comment that the education track should be a mandatory part of the program. Because even if our servicemen and women are not thinking about going directly on to college, they need to have that information so they know what their options are down the road. Because many times they may get out for a year or two and then want to come back. And that brings me to my question to Ms. Dunmyer, I recently met with the student veterans at UNLV. And they like to go out to Nellis or to Creech and recruit some folks to come to UNLV. But they tell me that they have a hard time getting onto the bases, getting in touch with these young people. And they wonder how, what they can do to make it better. Because they believe if these folks heard from fellow students maybe as part of the TAP program it would be less boring than sitting in the classroom, as you referenced, and have some relevant information. I just wonder is this a problem across campuses? Is it just UNLV? Is there something we can do to maybe facilitate that relationship earlier in the process?</t>
   </si>
   <si>
@@ -286,27 +256,18 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, if there are no other questions, I want to thank the first panel for being here today. You are now excused, but thank you for your dedication to our country and to our servicemembers.    I now invite our second panel to the witness table. Joining us is Mr. Curt Coy, Deputy Under Secretary for Economic Opportunity at the Department of Veterans Affairs; Ms. Teresa Gerton, Deputy Assistant Secretary at the Veterans' Employment and Training Service at the Department of Labor; and Dr. Susan Kelly, Director of the Transition to Veterans Program Office at the Department of Defense.    I thank you for being with us today and for your service to our nation's veterans.    Mr. Coy, let's begin with you; you are now recognized for five minutes, sir.</t>
   </si>
   <si>
-    <t>Coy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coy. Well, thank you, Chairman Wenstrup, Ranking Member Takano, and other members of the subcommittee.    I appreciate the opportunity to appear before you today to discuss the current status of VA's Transition Assistance Program. Accompanying me today is Ms. Rosye Cloud, our senior advisor for veteran employment and the acting director of the VBA/DoD Program Office, the organization in my office that managing the day-to-day operations of TAP.    We all believe that it is critical for today's servicemembers are prepared to transition to civilian life. We have been working collaboratively with all of our partners to deliver transition tools to help them and their families. It's been a whirlwind time frame, and for the most part, a successful journey.    In November 2011, Congress passed and the President signed the VOW to Hire Heroes Act which made participation in TAP mandatory for all servicemembers. The following month a joint Veterans Employment Initiative Task Force delivered its principal recommendations, all of which have been incorporated into TAP.    The new VA curriculum now consists of two briefings broken into four and two-hour sessions. Additionally, last year, VA fully deployed the career technical training track, a course designed for servicemembers wishing to transition into technical fields that may not require--that may require additional credentials, but certainly not a four-year degree. A contract vehicle was put into place to provide the resources and expertise to deliver TAP worldwide.    Our contractors share VA's commitment to veteran employment. Ninety-five percent of our benefits advisors are veterans. Four percent are military spouses. We currently have over 300 VA benefits advisors permanently stationed at 107 military installations who also provide itinerant support to an additional 189 military installations worldwide. We are reaching out to those communities outside the gates of those installations as well changing the way servicemembers view us.    Between our 300 benefits advisors and our 400 IDES staff, we are now permanently stationed in hundreds of locations. We consider reaching out to servicemembers while they are still in uniform and where they work is critical. TAP GPS is the key front door to the VA.    To meet the needs of the National Guard and Reserve component members, VA deployed benefits advisors at all formal demobilization locations, as well as we remain flexible for Yellow Ribbon and community-based events. In just over the last 15 months, through the middle of this month, VA has conducted over 10,000 benefits briefings to over 280,000 servicemembers.    VA and our partner agencies have also developed an online--developed a virtual curriculum hosted on the Joint Knowledge Online Web site, providing access from remote sites. We have also posted the complete curriculum on our eBenefits portal.    VA has developed and implemented a comprehensive approach to quality assurance. Benefits advisors complete a rigorous training program before being placed in the field and we follow up that training with intensive site visits.    VA has worked hard to develop a number of tools to help and assist transitioning servicemembers do everything possible to help them become informed consumers of their benefits ranging from career scope, GI Bill comparison tool, feedback tools, choosing the right school, and most recently, the Veterans Employment Center or VEC.    The VEC is the federal government's single authoritative Internet source for connecting transitioning servicemembers, veterans and their families to meaningful career opportunities. It is the first government-wide product that brings together a cadre of public and private employers with real job opportunities. Currently, 1.7 million posted on the VEC, thanks in large part to our Department of Labor partners. It also provides tools to translate military skills into language that civilian employers can understand. Job seekers can also build a profile to share with employers. Since its launch nine months ago, we have seen the VEC have over nine million visitors.    The VA has incorporated all of these tools into our briefings and all benefits advisors have been fully trained. Finally, it is important to note and acknowledge our veteran service organizations who are often included in our TAP sessions. VA collaboratively works with our partner agencies to continually improve the quality and breadth of our TAP program. We have come a long way, but also know there is more to do.    Mr. Chairman, we are rowing hard and we will continue to do so. This concludes my statement. I would be pleased to answer any questions you or other members of the subcommittee may have.    [The prepared statement of Curtis L. Coy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Coy.    Ms. Gerton, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Gerton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gerton. Good afternoon, Chairman Wenstrup, Ranking Member Takano and distinguished members of the Subcommittee.    My name is Teresa Gerton and I am the Deputy Assistant Secretary for Policy at the Veterans' Employment and Training Service in the Department of Labor.    Thank you for the opportunity to participate in today's hearing to discuss the implementation of the revised Transition Assistance Program, Transition Goals, Plans, Success, also known as GPS. Since the inception of TAP over 20 years ago, the Department of Labor has provided training and services through the Employment Workshop to over 2.6 million separating or retiring servicemembers and their spouses. Last year alone, DoL conducted more than 6,600 Employment Workshops for over 207,000 participants at 206 military installations worldwide.    The VOW Act of 2011 required that DoL use contract facilitators to deliver its Employment Workshops, to ensure a standardized, high-quality professional cadre of facilitators. DoL awarded a contract to GBX Consultants, Incorporated, a Service Disabled-Veteran-Owned Small Business in August of 2012 for the facilitation of all DoL Employment Workshops.    In fiscal year 2013 we unveiled an entirely new Employment Workshop that provides a highly effective training experience and prepares servicemembers for a successful transition to the civilian workplace at all military installations worldwide. This three-day program uses modern adult learning techniques to actively engage transitioning servicemembers in critical transition skills.    Along with the synchronous virtual workshop, DoL worked with DoD Joint Knowledge Online to convert the Employment Workshop instructor-led classroom curriculum into an asynchronous online distance learning format. This is a self-paced online version of the Employment Workshop that servicemembers can use to reinforce and refresh what they have learned in the classroom.    On day one, participants develop their Change Management Plan And identify overall strategies for transitioning into the civilian workforce. On day two, participants learn how to analyze the job market and use social media in job searches and networking. On day three, instructors impart critical information about special veterans' hiring authorities and how the federal job application process differs from the private sector.    Throughout the Employment Workshop, participants work extensively on their master job application, targeted resums, and interviewing skills, and finish with a mock interview exercise. Instructors also discuss relevant employment services, including benefits available to dislocated workers that are available to assist transitioning servicemembers, veterans, and their families before, during, and after their separation from the military.    All veterans, including recently separated servicemembers receive priority service in DoL-funded employment and training programs. Many of these programs and services are available through the nationwide network of nearly 2,500 American Job Centers. During the DoL-Employment Workshop, servicemembers learn that they are entitled to intensive services for up to six months at an American Job Center.    DoL is pleased to report that the new Employment Workshop curriculum has been well received. Of the 11,000 participants who responded to the most recent survey, 91 percent reported that they would use what they learned in their own transition planning and 89 percent reported that the DoL Employment Workshop enhanced their confidence in transition planning. DoL will continue to review feedback and evaluate the program to ensure that the curriculum remains relevant, that meaningful learning is taking place, and that servicemembers feel prepared to transition from military service and pursue other career goals.    Joining my colleagues from the other agencies, I want to remark on the strong partnership we have across the federal government in executing this program. We meet regularly to administer and update the program and we are proud of our collaboration on numerous initiatives including the Veterans Employment Center, the DoD SkillBridge Program, and our joint participation with the Chamber of Commerces' Hiring Our Heroes job summits at installations around the country. The Department looks forward to working with the Subcommittee to ensure that our separating servicemembers have the resources and training they need to successfully transition to the civilian workforce.    Mr. Chairman and Ranking Member Takano, and distinguished members of the committee, that concludes my oral statement. Thank you for the opportunity.    [The prepared statement of Teresa W. Gerton appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Ms. Gerton.    Dr. Kelly, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Good afternoon, Chairman Wenstrup and Ranking Member Takano and distinguished members of the subcommittee. I appreciate the opportunity to appear before you today joined by my colleagues from the Department of Veterans Affairs and the Department of Labor to discuss the status of implementing the redesigned TAP.    Redesigning TAP in collaboration are our interagency partners brings together a unique set of capabilities benefitting approximately one million servicemembers separating from active duty over the next four years. The foundation of the redesigned TAP is a set of career-readiness standards that are verified for all transitioning servicemembers during a Capstone event no later than 90 days prior to separation. If career readiness standards are not met, the servicemembers are provided further training or a warm hand-over to interagency partners who ensure servicemembers receive post-separation assistance.    Part of the redesign includes the robust transition GPS curriculum, goals, plan, success. It builds the skills that transitioning servicemembers will need to meet career-readiness standards and it is now fully implemented at 206 military sites in the United States and overseas. In addition to VOW Act mandated requirements, transition GPS includes modules for financial planning and a military occupational code crosswalk to civilian workforce skills. It also includes three supplement training tracks, accessing higher education, career technical training and entrepreneurship. To ensure that all servicemembers have access to the transition GPS regardless of their duty, station or location, we have made it available virtually on DoD's Joint Knowledge Online platform.    Another area of substantial progress is within our evaluation and assessment of TAP. DoD, in collaboration with our partners developed a TAP-evaluation strategy to address three overarching goals, accountability, customer satisfaction, and program effectiveness with long-term measures being developed by VA, DoL, and the Small Business Administration. Outcome measures are a priority for the TAP evaluations strategy, beginning with VOW Act and career-readiness standards compliance.    Based on the Defense Manpower Data Center, verified data for fiscal year to date 2015 across the services, that compliance for their active-duty servicemembers ranged from 91 to 97 percent. These results account for three-quarters of the members who are separated from active duty. We realize, however, that we must work hard to close the remaining reporting gap.    In fiscal year 2014, we also focused an commune indicating our redesigned TAP to servicemembers. Throughout the month of September, 2014, we conducted a comprehensive communications campaign. For your reference, we have provided materials to each one of the members of the subcommittee. This year we shifted our focus to implementation of the Military Life Cycle TAP Transition Model. This marks a major cultural shift for the Department. In December, 2014, the military services reported to the White House that Military Life Cycle Transition preparation was fully implemented at their installations, which the new TAP interagency governing structure will continue to monitor and improve.    Your continued support is greatly appreciated and I look forward to your questions.    [The prepared statement of Susan Kelly appears in the Appendix]</t>
   </si>
   <si>
@@ -398,9 +359,6 @@
   </si>
   <si>
     <t>412647</t>
-  </si>
-  <si>
-    <t>Kathleen M. Rice</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Rice. Thank you, Mr. Chairman.    This is for Ms. Gerton. During the DoL's Employment Workshops, are private sector employers brought in to do mock interviews, and if so, are you getting feedback to the servicemembers on their interview performance? I mean is there any aspect of private sector involvement?</t>
@@ -823,11 +781,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -847,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -875,11 +829,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -899,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -927,11 +877,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -951,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -979,11 +925,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1003,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1031,11 +973,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1057,11 +997,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1081,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1109,11 +1045,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1133,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1159,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1213,11 +1141,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1237,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1263,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1341,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1367,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1393,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1419,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1447,11 +1357,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1471,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1525,11 +1429,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1549,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1575,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1601,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1627,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1655,11 +1549,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1679,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1705,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1733,11 +1621,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1757,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1783,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1809,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1835,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1861,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1887,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1913,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1939,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1965,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>60</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1991,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2017,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2045,11 +1909,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2069,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2097,11 +1957,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2121,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2147,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2173,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2199,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2225,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2251,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2277,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2303,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2329,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2355,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2383,11 +2221,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2407,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2433,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2461,11 +2293,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2485,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>90</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2513,11 +2341,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2537,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2565,11 +2389,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2589,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2617,11 +2437,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2641,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2667,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2695,11 +2509,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2719,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2747,11 +2557,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2771,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2799,11 +2605,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2823,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>93</v>
-      </c>
-      <c r="H79" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2851,11 +2653,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2875,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2903,11 +2701,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2927,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2953,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2979,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3005,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3031,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3057,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>90</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3083,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3109,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3135,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3161,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3187,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3213,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3239,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3267,11 +3037,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3291,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3317,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3343,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
-      </c>
-      <c r="G99" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3371,11 +3133,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3395,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" t="s">
-        <v>128</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3421,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>93</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3447,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
-      </c>
-      <c r="G103" t="s">
-        <v>128</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3475,11 +3229,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3499,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3525,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>90</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3551,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>60</v>
-      </c>
-      <c r="G107" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3579,11 +3325,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well good afternoon, everyone. I want to welcome you all to the first hearing of the Subcommittee on Economic Opportunity for the 114th Congress. I have to tell you I am very honored to serve as chairman of this subcommittee and I look forward to working with Ranking Member Takano and other members to improve economic opportunities for our nation's veterans. Before we begin I will tell you that Mr. Coffman may join us and I ask unanimous consent that our colleague Mr. Coffman be allowed to join us at the dais and ask questions. Hearing no objection, so ordered.    We are here today to discuss implementation of the Transition Assistance Program, or TAP. TAP is a critically important step for today's servicemembers because if we can get TAP right for them at the onset of their transition from active duty I believe we can mitigate many other issues that have plagued and continue to plague previous generations of America's veterans.    The information on financial management, job search skills, and veteran benefits are light years away from what was being provided to servicemembers under previous versions of TAP, which was called by many death by PowerPoint. And while the structure of TAP has been greatly improved we can and should do more and I want to briefly make a few points.    It has been suggested by some that there is no need to continue to provide TAP in a classroom setting and that the online version is sufficient. While I agree that the online version can be helpful it was designed to only be a supplement to the classroom version and not to replace it. I understand that in a constrained fiscal environment the services have had the difficult task of implementing the VOW Act provision which made TAP mandatory. But I believe that focusing only on the online version would shortchange our servicemembers of critically important information.    I also want to echo the comments from the past two chairmen of this subcommittee by saying that I believe DoD is missing the mark by not making the education track mandatory for those servicemembers who are planning to use their G.I. Bill benefits upon transition. Under the right circumstances the Post 9/11 G.I. Bill can provide over $300,000 worth of benefits to a veteran and with thousands of schools and training programs clamoring for veteran students we must do everything we can to make sure our servicemembers are provided with all the information and tools they need to make an informed choice on the right school and how to use their educational benefits. Now from everything I have heard the education track does a great job in preparing servicemembers as they make this life changing choice and I believe it should be mandatory for servicemembers who are choosing to use their G.I. Bill benefits.    Another issue that I hope to hear more about today is how VA, DoD, and DoL are measuring and tracking performance and long term outcomes of TAP. Without measurable outcomes it is impossible to know for certain if this new curriculum is working. I know that hard statistics for a program like this can be difficult but I look forward to learning more about the steps the agencies have taken to track performance. Before I recognize the ranking member I do want to commend DoD, VA, and the Department of Labor for working together to transform TAP over the past two years. While many strides have been made a recent report from the VA's Office of Economic Opportunity highlighted a new challenge. The report stated that while unemployment rates for veterans continue to remain low, over half of the Post 9/11 veterans will face a period of unemployment upon transition. Helping facilitate a smooth transition so that veterans avoid this period of unemployment is our challenge and I look forward to exploring ways to address this challenge head on in today's hearing.    I now recognize Ranking Member Takano for his opening comments.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman, and welcome to the Subcommittee on Economic Opportunity, especially to our new members Ms. Radewagen and Ms. Rice. We welcome you. I know we will accomplish a lot under your stewardship, Mr. Chairman, of the committee during this session. Also thank you for your continued service to the United States Army and we are excited to have that level of experience and understanding that you bring from your experience in tackling the economic issues facing our veterans.    Transitioning from the military is a defining moment in all of our servicemembers' lives. Upon exiting the military at a minimum servicemembers should understand the resources available through their branch of service, the benefits awaiting them as veterans, and perhaps most importantly how to find a job. From a retiring commander to a one-term enlisted soldier leaving the military means different things to different individuals. There is no one answer as to how we can prepare these individuals for what comes next. Yet we have a responsibility to give them the best information available to help them focus on their next move as civilians. The Transition Assistance Program, or TAP, has gone through several iterations over the last several years and we expect it to continue to evolve as better practices are realized and implemented. The latest concept of TAP is Transition GPS, which is designed to deliver a wide array of information over a five-day period. One of the most important aspects of the program is a briefing on financial responsibility and access to financial counseling while still on active duty. Too many of our younger servicemembers are leaving the military without thinking about their financial futures and having access to a trained professional who can help guide them toward financial responsibility is extremely important. I look forward to hearing Dr. Kelly speak to the financial responsibility briefing and other aspects of the DoD portion of this training.    I am also looking forward to hearing from Mr. Coy about the VA portion of the training and how veterans are learning about how to access their veterans benefits. The Post 9/11 G.I. Bill is an incredible education benefit and I am very interested in hearing more about how servicemembers are learning about the optional education track briefing. Last Congress I was an original cosponsor to the legislation introduced by Congressman Flores that would have made the education track mandatory. In many instances student veterans are unaware of the differences between education institutions, the quality of education at those institutions, and the likelihood of finding a job upon graduation. The education track remains optional for the time being and I hope to hear from our agency witnesses that servicemembers are being encouraged to take this optional course if they are planning to use their education benefits.    Finally some portions of the Transition GPS training are now interactive and online. I am very interested in learning more about how servicemembers are utilizing these resources. I would also like to welcome our guests from the Veterans of Foreign Wars, the American Legion, Student Veterans of America, and Easter Seals Dixon Center. I look forward to hearing what some of the veterans you speak with are saying about TAP and any recommendations you may have.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Leghorn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Leghorn. Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee, on behalf of National Commander Michael Helm and the 2.4 million members of the American Legion, we thank you for this opportunity to testify at this hearing on improving the Transition Assistance Program and veterans' transition in general.    Over the past two years the American Legion has intensely scrutinized the new TAP, observing it in operation across the country. The testimony we present today reflects this scrutiny and provides observations as well as recommendations for improvement. In general we were highly impressed both by the amount and the quality of information that was conveyed, particularly in such a relatively short period of time.    The American Legion has long advocated for the inclusion of VSOs in TAP. VSOs provide important services to transitioning servicemembers and we are pleased to note that during the TAP sessions we observed the attendees were referred to VSOs for claim services by the TAP instructors. We would, however, like to offer some recommendations. The first regards a need to increase emphasis on soft skills, that is behaviors and etiquette that makes an individual employable. The vast majority of personnel leaving the armed services have not had significant experience working in a civilian work setting. We believe that insufficient emphasis is placed on these soft skills during TAP. Further, a five-day course cannot hope to teach behaviors obtained by spending a substantial part of one's adult life in a civilian work place. However, we believe that transitioning servicemembers would benefit if there were more discussions of workplace culture.    The second regards an improvement to the information on education that is provided in TAP. With the Post 9/11 G.I. Bill every transitioning servicemember has access to the opportunity to attend a higher education program, or in some instances transfer the benefit to their dependents. As such we recommend that the educational track incorporate more input from the Department of Education and that the education track of Transition GPS be made mandatory for all transitioning servicemembers.    We believe that part of the solution to veterans unemployment lies in a collaboration between government entities and the private sector. As such the American Legion as responded by bringing Employment Workshops and hiring events to transitioning servicemembers. Our Employment and Empowerment Summit is a two-day event that ends with a job fair. We host this summit in various cities and provide transportation and lodging to servicemembers going through TAP. Servicemembers attending our events have had the chance to learn about various opportunities in fields ranging from the banking industry to the trades and are able to receive some preliminary instruction on the aforementioned soft skills needed to gain and maintain employment. Unfortunately at some locations we are met with resistance from contracted TAP facilitators. Contractually TAP facilitators are evaluated based on a limited scope of performance measures, thus there is a lack of incentive for them to work outside the confines of their own programs. Amending DoD contracts for TAP facilitators to include a section regarding required collaboration with trusted private sector actors would solve this problem fairly easily.    We recognize that one of TAP's main roles is to introduce the employment services available to veterans and to provide a warm handoff to the agencies that administer those programs. However, we have become aware of an issue affecting veterans employment services that are funded by the JVSG and administered through DoL VETS. Last spring DoL issued a directive creating a hard distinction between disabled veteran outreach program representatives and the local veterans employment representatives which are funded by the JVSG grants and are located at DoL job centers across the country. Essentially this disallows DVOPs from seeing non-service disabled veterans even if they have time. DoL's self-imposed restrictions undermine the flexibility required to best serve veterans who are in need of employment services. These restrictions are contrary to the federal statute and have generated negative feedback from the field. The American Legion is adamant that a regulatory or legislative change reinstituting the roles of DVOP and LVERs by DoL would provide a significant improvement to the JVSG program. The American Legion is working with the office of Senator Pat Toomey of Pennsylvania to introduce a bill that would make this change explicit in the statute should DoL fail to make the regulatory change.    Overall the American Legion believes that the new TAP program represents an important step towards providing transitioning servicemembers with the information that they need to become successful. While there exists some shortcomings that require attention the program overall appears to be successful and implementation has been commendable. The American Legion looks forward to continuing our work with the agencies and with Congress to continue to improve this valuable resource for our transitioning servicemembers.    [The prepared statement of Davy Leghorn appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you very much. Thank you, Mr. Leghorn. Mr. Gallucci, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Gallucci</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallucci. Thank you, Mr. Chairman. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for the opportunity to present the VFW's thoughts on the Military Transition Assistance Program, or TAP.    The VFW has long recognized the need to provide transitioning servicemembers with a quality baseline of information with which to make informed decisions about their post-military lives. Over the past few years this subcommittee has driven significant change in TAP. The agencies responsible have rebuilt the program from the ground up and worked to foster consistency by introducing contract facilitators, individual curriculum tracks, and access to post-service TAP. My remarks will focus on these three areas.    First, the VFW generally agrees with the shift to contract facilitators, freeing up local resources to serve veterans. However, the shift has had some unintended consequences and the VFW encourages striking a proper balance on contract facilitation and local need. The VFW also recognizes that the military has made a significant investment in TAP in anticipation of the current military draw down. More transitioning servicemembers require more staff and more classroom space. As DoD seeks to meet this demand we must not forget that VSOs still play a critical role in transition. To assist in the process the VFW has professional staff on more than a dozen military installations with plans to expand.    Our staff provides free assistance to servicemembers seeking to file for VA disability benefits prior to separation. To do so we rely on our military hosts and TAP for access and support. Outgoing Secretary of Defense Chuck Hagel recognized this in his recent memo to installation commanders, which outlines how they should provide for VSOs that deliver VA accredited, face-to-face services to transitioning servicemembers. Adherence to this memo is critical to the VFW as we see a correlation between exposure and access and the number of servicemembers seeking representation. We see fewer claims on installations where our access is limited, despite the increase in those leaving the military.    Next, the VFW applauds the hard work of the contract VA briefing facilitators, many of whom are recently transitioned veterans. However, we question why the contract leaves such little flexibility to adapt to local needs. We encourage VA and the subcommittee to review the contract and offer flexibility to reintegrate local resources like VSOs and reasonably adapt the curriculum to suit the audience.    Next, we must ensure consistent access to the new TAP tracks, as well as consistent delivery of timely and relevant training. During VFW's recent visits to our staff on military bases we spoke with those responsible for implementing TAP. They acknowledge that the training is a marked improvement and were grateful for the significant recent investment in the program, however they worried that unit commanders still struggle to see the value in allowing their personnel to participate. Sadly, this was not an isolated issue. Though TAP is now a commander's program the VFW worries that DoD lacks mechanisms to hold commanders accountable. This requires a significant cultural shift, one that is unlikely to happen during the current draw down. So in an effort to mitigate this concern the VFW encouraged DoD to make the curriculum accessible online. DoD complied, allowing servicemembers to complete the training through their secure JKO accounts. However, transitioning servicemembers still have no reasonable way to anticipate the specific challenges they will face after leaving the military. The simplest solution would be for DoD to finalize its information sharing agreement with the Department of Labor, offering workforce agencies access to the names of veterans returning to their communities. But the agreement is once again delayed. This is unacceptable and we encourage Congress to act on it.    Finally, we must continue to invest in the post-service availability of TAP. Over the past two years DoL worked with its contractors in West Virginia, Georgia, and Washington to facilitate 23 workshops as part of the Off Base Transition Training, or OBTT pilot program. Some workshops were more successful than others, with West Virginia experiencing the most success thanks to support from the National Guard. OBTT was very cost effective, costing only $52,000 for the entire pilot. Through large scale community based TAP classes, OBTT serves veterans who otherwise would not have had access to the material or who could only rely on the, or could only receive the information by meeting one on one with an employment counselor. The VFW believes it is more cost effective to leverage the current TAP contract to facilitate large training sessions like OBTT before veterans meet one on one with counselors at American job centers. This way when veterans seek out services they are prepared to have a constructive meeting to find a job. OBTT expired this month and DoL will not have information on outcomes for another year. As we wait for final data on OBTT the VFW believes that Congress should at least extend the pilot, offering cost effective services to more veterans who need it.    Veterans can also access all the new TAP modules via a public facing website offered in joint venture by DoD and Department of Labor. The VFW believes this is a game changer for veterans. However, to improve the site the VFW recommends allowing veterans to navigate directly to modules they need and offering links to the participant guides. DoL should also track traffic to the site to identify trends and shortcomings in the Transition Assistance Program. These minor improvements would allow veterans to use the public facing site as an easy reference guide.    TAP is undergoing an amazing revolution and the VFW thanks everyone involved for their continued hard work on this project. However, we know that there are places that we can improve. With the current military draw down it is critical to ensure the future success of our war fighters and we look forward to working with this subcommittee on ways to make sure that we succeed in that mission. Chairman Wenstrup, Ranking Member Takano, and members of the committee, this concludes my testimony. I am happy to answer any questions you may have.    [The prepared statement of Ryan Gallucci appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Gallucci. Ms. Dunmyer, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Dunmyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Dunmyer. Thank you, Chairman. Chairman Wenstrup, Ranking Member Takano, and other distinguished members of the subcommittee, thank you for calling this hearing and for continuing to monitor efforts to successfully transition our returning veterans out of the military and into civilian life. My name is Valrica Dunmyer and I am the Chief of Staff and Chief Financial Officer at Student Veterans of America. I am also here as a veteran with 26 years of Army service. We are honored that you have invited us to be a part of this session today.    On behalf of SVA and its more than 400,000 student veterans within a network of more than 1,200 chapter affiliates I am pleased to submit our testimony on the review of a Transition Assistance Program. SVA advocates for the rights of veterans in higher education, rooted in the belief that investing in America's veterans today is a smart investment for the country tomorrow. SVA's top priorities include improving access to higher education and scaling effective services that empower student veterans to graduate on time with little to no student debt and successfully transition into civilian life.    Mr. Chairman, as a beneficiary of the current program I know that improvements have been made. Nevertheless, transitional challenges still exist as evidenced through the continuing struggle of our veterans, and more specifically our student veterans. One of the main challenges is knowing whether the TAP GPS program is truly working on the front end to produce the desired outcome on the back end. As of December 2, 2013 only 72 percent of TAP locations included the higher education track offered by the DoD. Now this may seem like a high number to you and something to be proud of. But consider for a moment, if you are that vet that's in the 28 percent group, and your release date is quickly approaching, imagine that that is you and you are thinking about getting out and you want to pursue a degree. You have not been provided any of the information and you have no idea where to start. For those veterans the system is still not working.    Our Million Records Project represents the most comprehensive examination of student veterans' post-secondary academic success that has ever been done in decades. The Million Records Project showed that more than a million veterans have used educational benefits from 2002 to 2010. Additional data indicates that there will be over five million veterans by 2020. These facts, coupled with ongoing budgetary constraints, prove that we can no longer hope that our brick and mortar delivery of information is sufficient. We must be innovative in our approach to information delivery while still ensuring the quality of information provided to our veterans. Most veterans frown on the current delivery method, describing the TAP program as death by Power Point due to the lengthy and enormous amount of information delivered. While the basic information such as months of Post 9/11 G.I. Bill eligibility should continue to be included, we must ensure that our entire instructional program is informed through research, best practices, and feedback.    As servicemembers contemplate pursuing a degree following the military the utilization of VSOs and VSAs can be looked upon as being a force multiplier, providing the necessary link between departure from the military and the veteran's introduction into civilian life. Veterans service organizations like SVA have a proven track record of success, to both its members, both today and its alumni, and it should have a seat at the table in further discussions. Through research, connection with our local SVA chapters, and advocacy, we know that the better informed and prepared student veterans are the greater the contributions and return on the investment for our nation. By integrating SVA and other VSOs into the assessing higher education track, we can ensure the same level of success for all vets transitioning into higher education.    We thank the chairman, ranking member, and the subcommittee members for your time, attention, and devotion to veterans and higher learning. We look forward to continuing to work with this subcommittee, the House Committee on Veterans' Affairs, and the Congress to ensure the success of all generations of veterans. Thank you.    [The prepared statement of Valrica Marshall Dunmyer appears in the Appendix]</t>
   </si>
   <si>
@@ -97,6 +121,9 @@
     <t xml:space="preserve">    Mr. Leghorn. We talked to the Department of Labor about this in the past. And I believe we were told that they had a, a while back they had a direct calling campaign where they were reaching, actually reaching out to the people that have gone through TAP. And they captured their information and they were following up with them afterwards. So I do not know if that is still happening, but the American Legion was in support of that program.</t>
   </si>
   <si>
+    <t>Gallagher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallagher. Thank you for the chairman, thank you for the question, Mr. Chairman. A couple of items on this. Now first, DoD is conducting exit surveys for participants in the Transition Assistance Program. Overall the feedback has been generally positive from what the VFW has seen. Now to do our own due diligence we also had a survey of recently transitioned servicemembers asking for their feedback on the Transition Assistance Program. A little bit of what we found from our respondents is that 65 percent reported that overall they were very satisfied with the level of training that they received. Only five percent reported that they were dissatisfied. Although the response, the sampling was very small, we hit major installations like, major combat installations like Fort Campbell, Fort Bragg, Hood, Camp Pendleton, and so on.    Now as far as the Department of Labor briefing, 72 percent found it very useful, 26 somewhat useful. And 68 percent reported very likely to use the resources after they separated. Now the problem with this is that it does not capture what happens in the out years. This is what we were talking about in our testimony about the DoD, the importance of the Department of Defense and Department of Labor information sharing agreement. Department of Labor does want to track veterans once they separate from the military and what their employment interactions are like but they do not have consistent access to the information from when servicemembers leave the military and become veterans.    Also with the Off Base Transition Training Program, I think that is why we think this is an important investment. OBTT has the potential to reach veteran who never had an opportunity to go through TAP, which is the majority of the veteran population. I know when I left the military it still was not mandatory. The mandate is only hitting people who are going through it now. And also, that is not necessarily even the right time to ask those questions because you do not know the challenges you will face until after you leave.    There are some issues with the current population survey and how the Bureau of Labor Statistics identifies veterans within the workforce. There are some tweaks we could make there to make it more beneficial. But there, we have a long way to go before properly evaluating the effectiveness of TAP and the long term employment of veterans.</t>
   </si>
   <si>
@@ -133,6 +160,9 @@
     <t xml:space="preserve">    Dr. Wenstrup. I now recognize the remaining members in order of arrival, alternating sides. First is Ms. Radewagen.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman, ranking member, and members of the subcommittee, talofa. My home district of American Samoa is an isolated group of islands about five and a half hours by plane south of Hawaii. It's the only U.S. soil that's south of the equator. And for a small group of islands we have a tremendous number of our sons and daughters serving and that have served in the armed forces. In fact, ten percent of our entire population is made up of military veterans. I want to make sure we cover as much as possible for our veterans. Too often in the past, not just in this committee but throughout the House, legislation has passed Congress that has forgotten American Samoa and the territories and I am pleased to see that in this bill our veterans are eligible for this assistance just as those in the States are.    I have a question for Mr. Gallucci. I appreciate your suggestion in your written testimony that you believe a disabled veterans outreach program and the local veterans employment representatives should be more involved in TAP. Short of repealing the law mandating that contractors teach TAP, how would you envision DVOPs and LVERs being more involved?</t>
   </si>
   <si>
@@ -160,6 +190,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. And I want to thank each of you for your testimony. I believe I can generalize that each of you has said that TAP is an improvement but that TAP itself can be improved. And I think that it is refreshing for all of us to hear that TAP is an improvement.    My question is directly oriented to Colonel Sutherland, although I invite anyone else to offer their comments. Colonel, I am just going to read a couple pieces of your testimony and then ask a question to provide the context. This is you speaking. I have found what typically separates a transition success story from a transition story of struggle and crisis lies in how a community welcomes, connects with, and responds to servicemembers leaving the military. We do not need more organizations but rather we need to harness existing community based programs and get organizations from across society to be inclusive of those touched by military service, to use our leadership locally to bring these organizations together to achieve collective impact. On page four you note, more needs to be done to localize the TAP training for transitioning servicemembers. And then to page seven you state that, you speak about the warm hand off between TAP and community as being lacking and there needs to be a more effective way of connecting the separating servicemember to the community he or she is planning to either prior to or during their transition. The DoD, for example, is not designed to provide these follow along community supports but some type of hand off within the community to the state director of veterans services, American Job Center staff, or local veterans service organization could help promote smoother transitions.    The question is, and it need not necessarily be an economic development agency although being a county commissioner, I mean, I am aware that every region has an economic development agency that handles workforce development programs. My question is because it is necessarily something very local, and because each community is a little bit different, do you envision sort of a unified delivery model for dealing with that warm hand off and for dealing with that ongoing issue of reintegration? Or is it something that really falls outside of government and is much more to use the term community based? I am curious if you could reflect on that a little bit further. Because I find it very interesting. And it really hits to the nexus of what the focus is, which is how do you transform TAP into its next iteration?    Colonel Sutherland. It does, and I understand exactly the challenge. The institutions need to err on the side of the veterans as opposed to err on the side of the institution, and to do that we have to understand if you have met a servicemember you have met a servicemember. If you have met a veteran, you have met a veteran. And if you are going to a community, you are going to a community. Each community has different resources, different capacity. And then what we have seen though in those communities, those local communities, is organizations that have stood up over the past several years because of this desire to want to connect and enable this generation of veterans.    We have seen whole of society approaches take place, whether it is in Wilkes-Barre or whether it is in Cincinnati or Boise, Idaho with the Wyakin Warrior Program. But what we have seen is that as the veterans transition, a more personalized approach to connect them to what are their desires as opposed to what do we think they should do. And what we have seen is over the past year some great advancement as far as apprenticeships and internships through Skills Bridge, with DoD working with the VA, as well as with teamster organizations. Trade and local organizations are phenomenal at not only recognizing the skill sets of the veterans but then tying them to what do the veterans want to do? What does the servicemember want to do? And now with the opportunities with the changes in DoD regulations that took place last January, or instructions that have taken place last January, we are now doing internships on installations. We just kicked off in Fort Sill with the teamsters doing truck driver training with a large group that want to drive trucks, commercial rigs. And so understanding that it is a whole of society approach but tailoring it after the institutionalized training that they go through in the TAP program as they get closer.    Because honestly when you are at 180 days out, I am thinking 180, 179, 178, I am counting down. As you get closer to the end and having a follow up, a care coordination effort, but connecting them to some sort of network in their local community. And that is what the state directors of veterans services have been talking about as well. Because we have been leaving them out of the conversations in some cases. Including them and then understanding that another part of this is building public awareness. The American people know what we are. They may not know us. They know we served in Iraq and Afghanistan, they know we served on a ship or an aircraft, we need to bring it down to a personal level once we connect with them in the local community. And that is why that network is so, so important. And having, harnessing community based programs. That is how J.P. Morgan has hired over 100,000, UBS has hired several thousand veterans. And through the work of local organizations coming together, what we have seen in Cincinnati that has reduced the unemployment. It is the public and private partnership that really takes place after that institutional training. Does that answer your question, sir?</t>
   </si>
   <si>
@@ -172,6 +208,12 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. First I would like to say to Mr. Leghorn, I appreciated your observation and comment that the education track should be a mandatory part of the program. Because even if our servicemen and women are not thinking about going directly on to college, they need to have that information so they know what their options are down the road. Because many times they may get out for a year or two and then want to come back. And that brings me to my question to Ms. Dunmyer, I recently met with the student veterans at UNLV. And they like to go out to Nellis or to Creech and recruit some folks to come to UNLV. But they tell me that they have a hard time getting onto the bases, getting in touch with these young people. And they wonder how, what they can do to make it better. Because they believe if these folks heard from fellow students maybe as part of the TAP program it would be less boring than sitting in the classroom, as you referenced, and have some relevant information. I just wonder is this a problem across campuses? Is it just UNLV? Is there something we can do to maybe facilitate that relationship earlier in the process?</t>
   </si>
   <si>
@@ -256,18 +298,27 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, if there are no other questions, I want to thank the first panel for being here today. You are now excused, but thank you for your dedication to our country and to our servicemembers.    I now invite our second panel to the witness table. Joining us is Mr. Curt Coy, Deputy Under Secretary for Economic Opportunity at the Department of Veterans Affairs; Ms. Teresa Gerton, Deputy Assistant Secretary at the Veterans' Employment and Training Service at the Department of Labor; and Dr. Susan Kelly, Director of the Transition to Veterans Program Office at the Department of Defense.    I thank you for being with us today and for your service to our nation's veterans.    Mr. Coy, let's begin with you; you are now recognized for five minutes, sir.</t>
   </si>
   <si>
+    <t>Coy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coy. Well, thank you, Chairman Wenstrup, Ranking Member Takano, and other members of the subcommittee.    I appreciate the opportunity to appear before you today to discuss the current status of VA's Transition Assistance Program. Accompanying me today is Ms. Rosye Cloud, our senior advisor for veteran employment and the acting director of the VBA/DoD Program Office, the organization in my office that managing the day-to-day operations of TAP.    We all believe that it is critical for today's servicemembers are prepared to transition to civilian life. We have been working collaboratively with all of our partners to deliver transition tools to help them and their families. It's been a whirlwind time frame, and for the most part, a successful journey.    In November 2011, Congress passed and the President signed the VOW to Hire Heroes Act which made participation in TAP mandatory for all servicemembers. The following month a joint Veterans Employment Initiative Task Force delivered its principal recommendations, all of which have been incorporated into TAP.    The new VA curriculum now consists of two briefings broken into four and two-hour sessions. Additionally, last year, VA fully deployed the career technical training track, a course designed for servicemembers wishing to transition into technical fields that may not require--that may require additional credentials, but certainly not a four-year degree. A contract vehicle was put into place to provide the resources and expertise to deliver TAP worldwide.    Our contractors share VA's commitment to veteran employment. Ninety-five percent of our benefits advisors are veterans. Four percent are military spouses. We currently have over 300 VA benefits advisors permanently stationed at 107 military installations who also provide itinerant support to an additional 189 military installations worldwide. We are reaching out to those communities outside the gates of those installations as well changing the way servicemembers view us.    Between our 300 benefits advisors and our 400 IDES staff, we are now permanently stationed in hundreds of locations. We consider reaching out to servicemembers while they are still in uniform and where they work is critical. TAP GPS is the key front door to the VA.    To meet the needs of the National Guard and Reserve component members, VA deployed benefits advisors at all formal demobilization locations, as well as we remain flexible for Yellow Ribbon and community-based events. In just over the last 15 months, through the middle of this month, VA has conducted over 10,000 benefits briefings to over 280,000 servicemembers.    VA and our partner agencies have also developed an online--developed a virtual curriculum hosted on the Joint Knowledge Online Web site, providing access from remote sites. We have also posted the complete curriculum on our eBenefits portal.    VA has developed and implemented a comprehensive approach to quality assurance. Benefits advisors complete a rigorous training program before being placed in the field and we follow up that training with intensive site visits.    VA has worked hard to develop a number of tools to help and assist transitioning servicemembers do everything possible to help them become informed consumers of their benefits ranging from career scope, GI Bill comparison tool, feedback tools, choosing the right school, and most recently, the Veterans Employment Center or VEC.    The VEC is the federal government's single authoritative Internet source for connecting transitioning servicemembers, veterans and their families to meaningful career opportunities. It is the first government-wide product that brings together a cadre of public and private employers with real job opportunities. Currently, 1.7 million posted on the VEC, thanks in large part to our Department of Labor partners. It also provides tools to translate military skills into language that civilian employers can understand. Job seekers can also build a profile to share with employers. Since its launch nine months ago, we have seen the VEC have over nine million visitors.    The VA has incorporated all of these tools into our briefings and all benefits advisors have been fully trained. Finally, it is important to note and acknowledge our veteran service organizations who are often included in our TAP sessions. VA collaboratively works with our partner agencies to continually improve the quality and breadth of our TAP program. We have come a long way, but also know there is more to do.    Mr. Chairman, we are rowing hard and we will continue to do so. This concludes my statement. I would be pleased to answer any questions you or other members of the subcommittee may have.    [The prepared statement of Curtis L. Coy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Coy.    Ms. Gerton, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Gerton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gerton. Good afternoon, Chairman Wenstrup, Ranking Member Takano and distinguished members of the Subcommittee.    My name is Teresa Gerton and I am the Deputy Assistant Secretary for Policy at the Veterans' Employment and Training Service in the Department of Labor.    Thank you for the opportunity to participate in today's hearing to discuss the implementation of the revised Transition Assistance Program, Transition Goals, Plans, Success, also known as GPS. Since the inception of TAP over 20 years ago, the Department of Labor has provided training and services through the Employment Workshop to over 2.6 million separating or retiring servicemembers and their spouses. Last year alone, DoL conducted more than 6,600 Employment Workshops for over 207,000 participants at 206 military installations worldwide.    The VOW Act of 2011 required that DoL use contract facilitators to deliver its Employment Workshops, to ensure a standardized, high-quality professional cadre of facilitators. DoL awarded a contract to GBX Consultants, Incorporated, a Service Disabled-Veteran-Owned Small Business in August of 2012 for the facilitation of all DoL Employment Workshops.    In fiscal year 2013 we unveiled an entirely new Employment Workshop that provides a highly effective training experience and prepares servicemembers for a successful transition to the civilian workplace at all military installations worldwide. This three-day program uses modern adult learning techniques to actively engage transitioning servicemembers in critical transition skills.    Along with the synchronous virtual workshop, DoL worked with DoD Joint Knowledge Online to convert the Employment Workshop instructor-led classroom curriculum into an asynchronous online distance learning format. This is a self-paced online version of the Employment Workshop that servicemembers can use to reinforce and refresh what they have learned in the classroom.    On day one, participants develop their Change Management Plan And identify overall strategies for transitioning into the civilian workforce. On day two, participants learn how to analyze the job market and use social media in job searches and networking. On day three, instructors impart critical information about special veterans' hiring authorities and how the federal job application process differs from the private sector.    Throughout the Employment Workshop, participants work extensively on their master job application, targeted resums, and interviewing skills, and finish with a mock interview exercise. Instructors also discuss relevant employment services, including benefits available to dislocated workers that are available to assist transitioning servicemembers, veterans, and their families before, during, and after their separation from the military.    All veterans, including recently separated servicemembers receive priority service in DoL-funded employment and training programs. Many of these programs and services are available through the nationwide network of nearly 2,500 American Job Centers. During the DoL-Employment Workshop, servicemembers learn that they are entitled to intensive services for up to six months at an American Job Center.    DoL is pleased to report that the new Employment Workshop curriculum has been well received. Of the 11,000 participants who responded to the most recent survey, 91 percent reported that they would use what they learned in their own transition planning and 89 percent reported that the DoL Employment Workshop enhanced their confidence in transition planning. DoL will continue to review feedback and evaluate the program to ensure that the curriculum remains relevant, that meaningful learning is taking place, and that servicemembers feel prepared to transition from military service and pursue other career goals.    Joining my colleagues from the other agencies, I want to remark on the strong partnership we have across the federal government in executing this program. We meet regularly to administer and update the program and we are proud of our collaboration on numerous initiatives including the Veterans Employment Center, the DoD SkillBridge Program, and our joint participation with the Chamber of Commerces' Hiring Our Heroes job summits at installations around the country. The Department looks forward to working with the Subcommittee to ensure that our separating servicemembers have the resources and training they need to successfully transition to the civilian workforce.    Mr. Chairman and Ranking Member Takano, and distinguished members of the committee, that concludes my oral statement. Thank you for the opportunity.    [The prepared statement of Teresa W. Gerton appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Ms. Gerton.    Dr. Kelly, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Good afternoon, Chairman Wenstrup and Ranking Member Takano and distinguished members of the subcommittee. I appreciate the opportunity to appear before you today joined by my colleagues from the Department of Veterans Affairs and the Department of Labor to discuss the status of implementing the redesigned TAP.    Redesigning TAP in collaboration are our interagency partners brings together a unique set of capabilities benefitting approximately one million servicemembers separating from active duty over the next four years. The foundation of the redesigned TAP is a set of career-readiness standards that are verified for all transitioning servicemembers during a Capstone event no later than 90 days prior to separation. If career readiness standards are not met, the servicemembers are provided further training or a warm hand-over to interagency partners who ensure servicemembers receive post-separation assistance.    Part of the redesign includes the robust transition GPS curriculum, goals, plan, success. It builds the skills that transitioning servicemembers will need to meet career-readiness standards and it is now fully implemented at 206 military sites in the United States and overseas. In addition to VOW Act mandated requirements, transition GPS includes modules for financial planning and a military occupational code crosswalk to civilian workforce skills. It also includes three supplement training tracks, accessing higher education, career technical training and entrepreneurship. To ensure that all servicemembers have access to the transition GPS regardless of their duty, station or location, we have made it available virtually on DoD's Joint Knowledge Online platform.    Another area of substantial progress is within our evaluation and assessment of TAP. DoD, in collaboration with our partners developed a TAP-evaluation strategy to address three overarching goals, accountability, customer satisfaction, and program effectiveness with long-term measures being developed by VA, DoL, and the Small Business Administration. Outcome measures are a priority for the TAP evaluations strategy, beginning with VOW Act and career-readiness standards compliance.    Based on the Defense Manpower Data Center, verified data for fiscal year to date 2015 across the services, that compliance for their active-duty servicemembers ranged from 91 to 97 percent. These results account for three-quarters of the members who are separated from active duty. We realize, however, that we must work hard to close the remaining reporting gap.    In fiscal year 2014, we also focused an commune indicating our redesigned TAP to servicemembers. Throughout the month of September, 2014, we conducted a comprehensive communications campaign. For your reference, we have provided materials to each one of the members of the subcommittee. This year we shifted our focus to implementation of the Military Life Cycle TAP Transition Model. This marks a major cultural shift for the Department. In December, 2014, the military services reported to the White House that Military Life Cycle Transition preparation was fully implemented at their installations, which the new TAP interagency governing structure will continue to monitor and improve.    Your continued support is greatly appreciated and I look forward to your questions.    [The prepared statement of Susan Kelly appears in the Appendix]</t>
   </si>
   <si>
@@ -359,6 +410,12 @@
   </si>
   <si>
     <t>412647</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Rice. Thank you, Mr. Chairman.    This is for Ms. Gerton. During the DoL's Employment Workshops, are private sector employers brought in to do mock interviews, and if so, are you getting feedback to the servicemembers on their interview performance? I mean is there any aspect of private sector involvement?</t>
@@ -731,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2573 +818,3011 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>100</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>100</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>132</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G103" t="s">
+        <v>132</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G105" t="s">
+        <v>64</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G107" t="s">
+        <v>64</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97995.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wenstrup</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Takano</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>412651</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Costello</t>
@@ -788,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,3008 +833,3232 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>94</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>97</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>100</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>94</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>98</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>101</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>101</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>97</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>98</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>104</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>100</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>100</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>104</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>48</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G101" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>97</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>101</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G103" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>94</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>98</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H107" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
